--- a/DataBases/Soporte magnetico declaración de produccion GLP 2019-2023.xlsx
+++ b/DataBases/Soporte magnetico declaración de produccion GLP 2019-2023.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6B2542-EAE7-40DB-8CDB-942E061C46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB5A504-FED9-4C98-BC45-517EE8322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="3240" windowWidth="21600" windowHeight="11430" tabRatio="880" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Apiay" sheetId="9" r:id="rId1"/>
-    <sheet name="Barrancabermeja" sheetId="10" r:id="rId2"/>
-    <sheet name="Ctagena Lineas Locales" sheetId="11" r:id="rId3"/>
+    <sheet name="Apiay-19" sheetId="9" r:id="rId1"/>
+    <sheet name="Barrancabermeja-19" sheetId="10" r:id="rId2"/>
+    <sheet name="Ctagena Lineas Locales-19" sheetId="11" r:id="rId3"/>
     <sheet name="Ctagena Propilco" sheetId="12" r:id="rId4"/>
-    <sheet name="Cupiagua" sheetId="14" r:id="rId5"/>
-    <sheet name="Cusiana" sheetId="15" r:id="rId6"/>
-    <sheet name="Dina" sheetId="8" r:id="rId7"/>
-    <sheet name="Floreña" sheetId="16" r:id="rId8"/>
+    <sheet name="Cupiagua-19" sheetId="14" r:id="rId5"/>
+    <sheet name="Cusiana-19" sheetId="15" r:id="rId6"/>
+    <sheet name="Dina-19" sheetId="8" r:id="rId7"/>
+    <sheet name="Floreña-19" sheetId="16" r:id="rId8"/>
     <sheet name="Frontera Energy" sheetId="25" r:id="rId9"/>
     <sheet name="Parex" sheetId="2" r:id="rId10"/>
     <sheet name="PBI_SAS ESP" sheetId="24" r:id="rId11"/>
@@ -1859,7 +1859,7 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19729,7 +19729,7 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26126,7 +26126,7 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30072,7 +30072,7 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32042,7 +32042,7 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34011,8 +34011,8 @@
   </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35981,8 +35981,8 @@
   </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
